--- a/lib/energy/templates/Site Addition Form EDF.xlsx
+++ b/lib/energy/templates/Site Addition Form EDF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educationgovuk.sharepoint.com/sites/lvedfe00098/Lib21/02 Service Iteration and Management/Energy/User Research/DOCUMENTS AND FORMS ONBOARDING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F9AFCA-C152-4D20-84A0-514967DD82DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{183D2862-88E7-456D-AC8F-221AAA38179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2805" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -559,7 +559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,27 +646,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -678,7 +657,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,20 +706,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -881,26 +848,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -977,12 +930,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,88 +940,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,11 +985,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{71552D3C-6E34-4832-8177-99CC9764E670}"/>
   </cellStyles>
@@ -1817,7 +1685,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1"/>
@@ -1825,7 +1693,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="5"/>
@@ -1864,7 +1732,7 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1"/>
@@ -7805,10 +7673,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD966"/>
+  <dimension ref="A1:AD910"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A69" sqref="A14:AC69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7940,49 +7808,49 @@
       <c r="AC3" s="11"/>
     </row>
     <row r="4" spans="1:30" ht="14.45">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="68" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="81" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="68" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="81" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="68" t="s">
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="83"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="49"/>
     </row>
     <row r="5" spans="1:30" ht="21">
       <c r="A5" s="16" t="s">
@@ -8077,18 +7945,18 @@
       <c r="A6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="24" t="s">
         <v>61</v>
       </c>
@@ -8107,12 +7975,12 @@
       <c r="O6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="75" t="s">
+      <c r="P6" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="31" t="s">
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="29" t="s">
         <v>68</v>
       </c>
       <c r="T6" s="25" t="s">
@@ -8124,15 +7992,15 @@
       <c r="V6" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="W6" s="78" t="s">
+      <c r="W6" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="80"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="45"/>
     </row>
     <row r="7" spans="1:30" ht="14.45">
       <c r="A7" s="11"/>
@@ -8337,7 +8205,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="32"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -8356,1907 +8224,1798 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="33"/>
-    </row>
-    <row r="15" spans="1:30" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="46"/>
+    <row r="14" spans="1:30" s="31" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="31"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="33"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="31"/>
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A17" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="33"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="31"/>
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A18" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="33"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="31"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A19" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="33"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="31"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A20" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="33"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="31"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="33"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="31"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A22" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="33"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="31"/>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A23" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="33"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="31"/>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="33"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="31"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A25" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="33"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="31"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A26" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="33"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="31"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A27" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="33"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="31"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A28" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="33"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="31"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A29" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="33"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="31"/>
     </row>
     <row r="30" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A30" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="33"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="31"/>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A31" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="33"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="31"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A32" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="33"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="31"/>
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A33" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="33"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="31"/>
     </row>
     <row r="34" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A34" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="33"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="31"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A35" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="33"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47"/>
+      <c r="AD35" s="31"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A36" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="33"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="31"/>
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="33"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="31"/>
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A38" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="33"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="31"/>
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A39" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="33"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="31"/>
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A40" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="33"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="31"/>
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A41" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="33"/>
-    </row>
-    <row r="42" spans="1:30" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="46"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="31"/>
+    </row>
+    <row r="42" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="31"/>
     </row>
     <row r="43" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A43" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="33"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
+      <c r="AC43" s="47"/>
+      <c r="AD43" s="31"/>
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A44" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="33"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="31"/>
     </row>
     <row r="45" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A45" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="33"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="31"/>
     </row>
     <row r="46" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A46" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="33"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="31"/>
     </row>
     <row r="47" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A47" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="33"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="31"/>
     </row>
     <row r="48" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A48" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="33"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="31"/>
     </row>
     <row r="49" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A49" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="33"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="31"/>
     </row>
     <row r="50" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A50" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="33"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="31"/>
     </row>
     <row r="51" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A51" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="33"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="31"/>
     </row>
     <row r="52" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A52" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="33"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+      <c r="Y52" s="47"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
+      <c r="AD52" s="31"/>
     </row>
     <row r="53" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A53" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="33"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="31"/>
     </row>
     <row r="54" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A54" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="33"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="31"/>
     </row>
     <row r="55" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A55" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="34"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="33"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
+      <c r="AD55" s="31"/>
     </row>
     <row r="56" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A56" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="34"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="33"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="31"/>
     </row>
     <row r="57" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A57" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="34"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="33"/>
-    </row>
-    <row r="58" spans="1:30" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="45"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="43"/>
-      <c r="AA58" s="42"/>
-      <c r="AB58" s="43"/>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="46"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="47"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
+      <c r="AC57" s="47"/>
+      <c r="AD57" s="31"/>
+    </row>
+    <row r="58" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="47"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="47"/>
+      <c r="AD58" s="31"/>
     </row>
     <row r="59" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A59" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="34"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="33"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
+      <c r="X59" s="47"/>
+      <c r="Y59" s="47"/>
+      <c r="Z59" s="47"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="47"/>
+      <c r="AC59" s="47"/>
+      <c r="AD59" s="31"/>
     </row>
     <row r="60" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A60" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="34"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="33"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
+      <c r="X60" s="47"/>
+      <c r="Y60" s="47"/>
+      <c r="Z60" s="47"/>
+      <c r="AA60" s="47"/>
+      <c r="AB60" s="47"/>
+      <c r="AC60" s="47"/>
+      <c r="AD60" s="31"/>
     </row>
     <row r="61" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A61" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="34"/>
-      <c r="AC61" s="28"/>
-      <c r="AD61" s="33"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="47"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="47"/>
+      <c r="AC61" s="47"/>
+      <c r="AD61" s="31"/>
     </row>
     <row r="62" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A62" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="33"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="47"/>
+      <c r="Y62" s="47"/>
+      <c r="Z62" s="47"/>
+      <c r="AA62" s="47"/>
+      <c r="AB62" s="47"/>
+      <c r="AC62" s="47"/>
+      <c r="AD62" s="31"/>
     </row>
     <row r="63" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A63" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="34"/>
-      <c r="AC63" s="28"/>
-      <c r="AD63" s="33"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="47"/>
+      <c r="Y63" s="47"/>
+      <c r="Z63" s="47"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="47"/>
+      <c r="AC63" s="47"/>
+      <c r="AD63" s="31"/>
     </row>
     <row r="64" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A64" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="34"/>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="33"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="47"/>
+      <c r="Y64" s="47"/>
+      <c r="Z64" s="47"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="47"/>
+      <c r="AC64" s="47"/>
+      <c r="AD64" s="31"/>
     </row>
     <row r="65" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A65" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="34"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="33"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="47"/>
+      <c r="Y65" s="47"/>
+      <c r="Z65" s="47"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="47"/>
+      <c r="AC65" s="47"/>
+      <c r="AD65" s="31"/>
     </row>
     <row r="66" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A66" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="33"/>
-    </row>
-    <row r="67" spans="1:30" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A67" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="28"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="60"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="42"/>
-      <c r="X67" s="45"/>
-      <c r="Y67" s="42"/>
-      <c r="Z67" s="43"/>
-      <c r="AA67" s="42"/>
-      <c r="AB67" s="43"/>
-      <c r="AC67" s="42"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="47"/>
+      <c r="AA66" s="47"/>
+      <c r="AB66" s="47"/>
+      <c r="AC66" s="47"/>
+      <c r="AD66" s="31"/>
+    </row>
+    <row r="67" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
+      <c r="Y67" s="47"/>
+      <c r="Z67" s="47"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="47"/>
+      <c r="AC67" s="47"/>
+      <c r="AD67" s="31"/>
     </row>
     <row r="68" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A68" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="28"/>
-      <c r="T68" s="28"/>
-      <c r="U68" s="28"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="34"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="33"/>
-    </row>
-    <row r="69" spans="1:30" s="33" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
-      <c r="Q69" s="51"/>
-      <c r="R69" s="51"/>
-      <c r="S69" s="28"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="28"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="51"/>
-      <c r="X69" s="53"/>
-      <c r="Y69" s="51"/>
-      <c r="Z69" s="54"/>
-      <c r="AA69" s="51"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="51"/>
-    </row>
-    <row r="70" spans="1:30" s="33" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="47"/>
+      <c r="Y68" s="47"/>
+      <c r="Z68" s="47"/>
+      <c r="AA68" s="47"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
+      <c r="AD68" s="31"/>
+    </row>
+    <row r="69" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="47"/>
+      <c r="Z69" s="47"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="47"/>
+      <c r="AD69" s="31"/>
+    </row>
+    <row r="70" spans="1:30" ht="15.75" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -36327,1742 +36086,6 @@
       <c r="AB910" s="11"/>
       <c r="AC910" s="11"/>
     </row>
-    <row r="911" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A911" s="11"/>
-      <c r="B911" s="11"/>
-      <c r="C911" s="11"/>
-      <c r="D911" s="11"/>
-      <c r="E911" s="11"/>
-      <c r="F911" s="11"/>
-      <c r="G911" s="11"/>
-      <c r="H911" s="11"/>
-      <c r="I911" s="11"/>
-      <c r="J911" s="11"/>
-      <c r="K911" s="11"/>
-      <c r="L911" s="11"/>
-      <c r="M911" s="11"/>
-      <c r="N911" s="11"/>
-      <c r="O911" s="11"/>
-      <c r="P911" s="11"/>
-      <c r="Q911" s="11"/>
-      <c r="R911" s="11"/>
-      <c r="S911" s="11"/>
-      <c r="T911" s="11"/>
-      <c r="U911" s="11"/>
-      <c r="V911" s="11"/>
-      <c r="W911" s="11"/>
-      <c r="X911" s="11"/>
-      <c r="Y911" s="11"/>
-      <c r="Z911" s="11"/>
-      <c r="AA911" s="11"/>
-      <c r="AB911" s="11"/>
-      <c r="AC911" s="11"/>
-    </row>
-    <row r="912" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A912" s="11"/>
-      <c r="B912" s="11"/>
-      <c r="C912" s="11"/>
-      <c r="D912" s="11"/>
-      <c r="E912" s="11"/>
-      <c r="F912" s="11"/>
-      <c r="G912" s="11"/>
-      <c r="H912" s="11"/>
-      <c r="I912" s="11"/>
-      <c r="J912" s="11"/>
-      <c r="K912" s="11"/>
-      <c r="L912" s="11"/>
-      <c r="M912" s="11"/>
-      <c r="N912" s="11"/>
-      <c r="O912" s="11"/>
-      <c r="P912" s="11"/>
-      <c r="Q912" s="11"/>
-      <c r="R912" s="11"/>
-      <c r="S912" s="11"/>
-      <c r="T912" s="11"/>
-      <c r="U912" s="11"/>
-      <c r="V912" s="11"/>
-      <c r="W912" s="11"/>
-      <c r="X912" s="11"/>
-      <c r="Y912" s="11"/>
-      <c r="Z912" s="11"/>
-      <c r="AA912" s="11"/>
-      <c r="AB912" s="11"/>
-      <c r="AC912" s="11"/>
-    </row>
-    <row r="913" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A913" s="11"/>
-      <c r="B913" s="11"/>
-      <c r="C913" s="11"/>
-      <c r="D913" s="11"/>
-      <c r="E913" s="11"/>
-      <c r="F913" s="11"/>
-      <c r="G913" s="11"/>
-      <c r="H913" s="11"/>
-      <c r="I913" s="11"/>
-      <c r="J913" s="11"/>
-      <c r="K913" s="11"/>
-      <c r="L913" s="11"/>
-      <c r="M913" s="11"/>
-      <c r="N913" s="11"/>
-      <c r="O913" s="11"/>
-      <c r="P913" s="11"/>
-      <c r="Q913" s="11"/>
-      <c r="R913" s="11"/>
-      <c r="S913" s="11"/>
-      <c r="T913" s="11"/>
-      <c r="U913" s="11"/>
-      <c r="V913" s="11"/>
-      <c r="W913" s="11"/>
-      <c r="X913" s="11"/>
-      <c r="Y913" s="11"/>
-      <c r="Z913" s="11"/>
-      <c r="AA913" s="11"/>
-      <c r="AB913" s="11"/>
-      <c r="AC913" s="11"/>
-    </row>
-    <row r="914" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A914" s="11"/>
-      <c r="B914" s="11"/>
-      <c r="C914" s="11"/>
-      <c r="D914" s="11"/>
-      <c r="E914" s="11"/>
-      <c r="F914" s="11"/>
-      <c r="G914" s="11"/>
-      <c r="H914" s="11"/>
-      <c r="I914" s="11"/>
-      <c r="J914" s="11"/>
-      <c r="K914" s="11"/>
-      <c r="L914" s="11"/>
-      <c r="M914" s="11"/>
-      <c r="N914" s="11"/>
-      <c r="O914" s="11"/>
-      <c r="P914" s="11"/>
-      <c r="Q914" s="11"/>
-      <c r="R914" s="11"/>
-      <c r="S914" s="11"/>
-      <c r="T914" s="11"/>
-      <c r="U914" s="11"/>
-      <c r="V914" s="11"/>
-      <c r="W914" s="11"/>
-      <c r="X914" s="11"/>
-      <c r="Y914" s="11"/>
-      <c r="Z914" s="11"/>
-      <c r="AA914" s="11"/>
-      <c r="AB914" s="11"/>
-      <c r="AC914" s="11"/>
-    </row>
-    <row r="915" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A915" s="11"/>
-      <c r="B915" s="11"/>
-      <c r="C915" s="11"/>
-      <c r="D915" s="11"/>
-      <c r="E915" s="11"/>
-      <c r="F915" s="11"/>
-      <c r="G915" s="11"/>
-      <c r="H915" s="11"/>
-      <c r="I915" s="11"/>
-      <c r="J915" s="11"/>
-      <c r="K915" s="11"/>
-      <c r="L915" s="11"/>
-      <c r="M915" s="11"/>
-      <c r="N915" s="11"/>
-      <c r="O915" s="11"/>
-      <c r="P915" s="11"/>
-      <c r="Q915" s="11"/>
-      <c r="R915" s="11"/>
-      <c r="S915" s="11"/>
-      <c r="T915" s="11"/>
-      <c r="U915" s="11"/>
-      <c r="V915" s="11"/>
-      <c r="W915" s="11"/>
-      <c r="X915" s="11"/>
-      <c r="Y915" s="11"/>
-      <c r="Z915" s="11"/>
-      <c r="AA915" s="11"/>
-      <c r="AB915" s="11"/>
-      <c r="AC915" s="11"/>
-    </row>
-    <row r="916" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A916" s="11"/>
-      <c r="B916" s="11"/>
-      <c r="C916" s="11"/>
-      <c r="D916" s="11"/>
-      <c r="E916" s="11"/>
-      <c r="F916" s="11"/>
-      <c r="G916" s="11"/>
-      <c r="H916" s="11"/>
-      <c r="I916" s="11"/>
-      <c r="J916" s="11"/>
-      <c r="K916" s="11"/>
-      <c r="L916" s="11"/>
-      <c r="M916" s="11"/>
-      <c r="N916" s="11"/>
-      <c r="O916" s="11"/>
-      <c r="P916" s="11"/>
-      <c r="Q916" s="11"/>
-      <c r="R916" s="11"/>
-      <c r="S916" s="11"/>
-      <c r="T916" s="11"/>
-      <c r="U916" s="11"/>
-      <c r="V916" s="11"/>
-      <c r="W916" s="11"/>
-      <c r="X916" s="11"/>
-      <c r="Y916" s="11"/>
-      <c r="Z916" s="11"/>
-      <c r="AA916" s="11"/>
-      <c r="AB916" s="11"/>
-      <c r="AC916" s="11"/>
-    </row>
-    <row r="917" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A917" s="11"/>
-      <c r="B917" s="11"/>
-      <c r="C917" s="11"/>
-      <c r="D917" s="11"/>
-      <c r="E917" s="11"/>
-      <c r="F917" s="11"/>
-      <c r="G917" s="11"/>
-      <c r="H917" s="11"/>
-      <c r="I917" s="11"/>
-      <c r="J917" s="11"/>
-      <c r="K917" s="11"/>
-      <c r="L917" s="11"/>
-      <c r="M917" s="11"/>
-      <c r="N917" s="11"/>
-      <c r="O917" s="11"/>
-      <c r="P917" s="11"/>
-      <c r="Q917" s="11"/>
-      <c r="R917" s="11"/>
-      <c r="S917" s="11"/>
-      <c r="T917" s="11"/>
-      <c r="U917" s="11"/>
-      <c r="V917" s="11"/>
-      <c r="W917" s="11"/>
-      <c r="X917" s="11"/>
-      <c r="Y917" s="11"/>
-      <c r="Z917" s="11"/>
-      <c r="AA917" s="11"/>
-      <c r="AB917" s="11"/>
-      <c r="AC917" s="11"/>
-    </row>
-    <row r="918" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A918" s="11"/>
-      <c r="B918" s="11"/>
-      <c r="C918" s="11"/>
-      <c r="D918" s="11"/>
-      <c r="E918" s="11"/>
-      <c r="F918" s="11"/>
-      <c r="G918" s="11"/>
-      <c r="H918" s="11"/>
-      <c r="I918" s="11"/>
-      <c r="J918" s="11"/>
-      <c r="K918" s="11"/>
-      <c r="L918" s="11"/>
-      <c r="M918" s="11"/>
-      <c r="N918" s="11"/>
-      <c r="O918" s="11"/>
-      <c r="P918" s="11"/>
-      <c r="Q918" s="11"/>
-      <c r="R918" s="11"/>
-      <c r="S918" s="11"/>
-      <c r="T918" s="11"/>
-      <c r="U918" s="11"/>
-      <c r="V918" s="11"/>
-      <c r="W918" s="11"/>
-      <c r="X918" s="11"/>
-      <c r="Y918" s="11"/>
-      <c r="Z918" s="11"/>
-      <c r="AA918" s="11"/>
-      <c r="AB918" s="11"/>
-      <c r="AC918" s="11"/>
-    </row>
-    <row r="919" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A919" s="11"/>
-      <c r="B919" s="11"/>
-      <c r="C919" s="11"/>
-      <c r="D919" s="11"/>
-      <c r="E919" s="11"/>
-      <c r="F919" s="11"/>
-      <c r="G919" s="11"/>
-      <c r="H919" s="11"/>
-      <c r="I919" s="11"/>
-      <c r="J919" s="11"/>
-      <c r="K919" s="11"/>
-      <c r="L919" s="11"/>
-      <c r="M919" s="11"/>
-      <c r="N919" s="11"/>
-      <c r="O919" s="11"/>
-      <c r="P919" s="11"/>
-      <c r="Q919" s="11"/>
-      <c r="R919" s="11"/>
-      <c r="S919" s="11"/>
-      <c r="T919" s="11"/>
-      <c r="U919" s="11"/>
-      <c r="V919" s="11"/>
-      <c r="W919" s="11"/>
-      <c r="X919" s="11"/>
-      <c r="Y919" s="11"/>
-      <c r="Z919" s="11"/>
-      <c r="AA919" s="11"/>
-      <c r="AB919" s="11"/>
-      <c r="AC919" s="11"/>
-    </row>
-    <row r="920" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A920" s="11"/>
-      <c r="B920" s="11"/>
-      <c r="C920" s="11"/>
-      <c r="D920" s="11"/>
-      <c r="E920" s="11"/>
-      <c r="F920" s="11"/>
-      <c r="G920" s="11"/>
-      <c r="H920" s="11"/>
-      <c r="I920" s="11"/>
-      <c r="J920" s="11"/>
-      <c r="K920" s="11"/>
-      <c r="L920" s="11"/>
-      <c r="M920" s="11"/>
-      <c r="N920" s="11"/>
-      <c r="O920" s="11"/>
-      <c r="P920" s="11"/>
-      <c r="Q920" s="11"/>
-      <c r="R920" s="11"/>
-      <c r="S920" s="11"/>
-      <c r="T920" s="11"/>
-      <c r="U920" s="11"/>
-      <c r="V920" s="11"/>
-      <c r="W920" s="11"/>
-      <c r="X920" s="11"/>
-      <c r="Y920" s="11"/>
-      <c r="Z920" s="11"/>
-      <c r="AA920" s="11"/>
-      <c r="AB920" s="11"/>
-      <c r="AC920" s="11"/>
-    </row>
-    <row r="921" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A921" s="11"/>
-      <c r="B921" s="11"/>
-      <c r="C921" s="11"/>
-      <c r="D921" s="11"/>
-      <c r="E921" s="11"/>
-      <c r="F921" s="11"/>
-      <c r="G921" s="11"/>
-      <c r="H921" s="11"/>
-      <c r="I921" s="11"/>
-      <c r="J921" s="11"/>
-      <c r="K921" s="11"/>
-      <c r="L921" s="11"/>
-      <c r="M921" s="11"/>
-      <c r="N921" s="11"/>
-      <c r="O921" s="11"/>
-      <c r="P921" s="11"/>
-      <c r="Q921" s="11"/>
-      <c r="R921" s="11"/>
-      <c r="S921" s="11"/>
-      <c r="T921" s="11"/>
-      <c r="U921" s="11"/>
-      <c r="V921" s="11"/>
-      <c r="W921" s="11"/>
-      <c r="X921" s="11"/>
-      <c r="Y921" s="11"/>
-      <c r="Z921" s="11"/>
-      <c r="AA921" s="11"/>
-      <c r="AB921" s="11"/>
-      <c r="AC921" s="11"/>
-    </row>
-    <row r="922" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A922" s="11"/>
-      <c r="B922" s="11"/>
-      <c r="C922" s="11"/>
-      <c r="D922" s="11"/>
-      <c r="E922" s="11"/>
-      <c r="F922" s="11"/>
-      <c r="G922" s="11"/>
-      <c r="H922" s="11"/>
-      <c r="I922" s="11"/>
-      <c r="J922" s="11"/>
-      <c r="K922" s="11"/>
-      <c r="L922" s="11"/>
-      <c r="M922" s="11"/>
-      <c r="N922" s="11"/>
-      <c r="O922" s="11"/>
-      <c r="P922" s="11"/>
-      <c r="Q922" s="11"/>
-      <c r="R922" s="11"/>
-      <c r="S922" s="11"/>
-      <c r="T922" s="11"/>
-      <c r="U922" s="11"/>
-      <c r="V922" s="11"/>
-      <c r="W922" s="11"/>
-      <c r="X922" s="11"/>
-      <c r="Y922" s="11"/>
-      <c r="Z922" s="11"/>
-      <c r="AA922" s="11"/>
-      <c r="AB922" s="11"/>
-      <c r="AC922" s="11"/>
-    </row>
-    <row r="923" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A923" s="11"/>
-      <c r="B923" s="11"/>
-      <c r="C923" s="11"/>
-      <c r="D923" s="11"/>
-      <c r="E923" s="11"/>
-      <c r="F923" s="11"/>
-      <c r="G923" s="11"/>
-      <c r="H923" s="11"/>
-      <c r="I923" s="11"/>
-      <c r="J923" s="11"/>
-      <c r="K923" s="11"/>
-      <c r="L923" s="11"/>
-      <c r="M923" s="11"/>
-      <c r="N923" s="11"/>
-      <c r="O923" s="11"/>
-      <c r="P923" s="11"/>
-      <c r="Q923" s="11"/>
-      <c r="R923" s="11"/>
-      <c r="S923" s="11"/>
-      <c r="T923" s="11"/>
-      <c r="U923" s="11"/>
-      <c r="V923" s="11"/>
-      <c r="W923" s="11"/>
-      <c r="X923" s="11"/>
-      <c r="Y923" s="11"/>
-      <c r="Z923" s="11"/>
-      <c r="AA923" s="11"/>
-      <c r="AB923" s="11"/>
-      <c r="AC923" s="11"/>
-    </row>
-    <row r="924" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A924" s="11"/>
-      <c r="B924" s="11"/>
-      <c r="C924" s="11"/>
-      <c r="D924" s="11"/>
-      <c r="E924" s="11"/>
-      <c r="F924" s="11"/>
-      <c r="G924" s="11"/>
-      <c r="H924" s="11"/>
-      <c r="I924" s="11"/>
-      <c r="J924" s="11"/>
-      <c r="K924" s="11"/>
-      <c r="L924" s="11"/>
-      <c r="M924" s="11"/>
-      <c r="N924" s="11"/>
-      <c r="O924" s="11"/>
-      <c r="P924" s="11"/>
-      <c r="Q924" s="11"/>
-      <c r="R924" s="11"/>
-      <c r="S924" s="11"/>
-      <c r="T924" s="11"/>
-      <c r="U924" s="11"/>
-      <c r="V924" s="11"/>
-      <c r="W924" s="11"/>
-      <c r="X924" s="11"/>
-      <c r="Y924" s="11"/>
-      <c r="Z924" s="11"/>
-      <c r="AA924" s="11"/>
-      <c r="AB924" s="11"/>
-      <c r="AC924" s="11"/>
-    </row>
-    <row r="925" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A925" s="11"/>
-      <c r="B925" s="11"/>
-      <c r="C925" s="11"/>
-      <c r="D925" s="11"/>
-      <c r="E925" s="11"/>
-      <c r="F925" s="11"/>
-      <c r="G925" s="11"/>
-      <c r="H925" s="11"/>
-      <c r="I925" s="11"/>
-      <c r="J925" s="11"/>
-      <c r="K925" s="11"/>
-      <c r="L925" s="11"/>
-      <c r="M925" s="11"/>
-      <c r="N925" s="11"/>
-      <c r="O925" s="11"/>
-      <c r="P925" s="11"/>
-      <c r="Q925" s="11"/>
-      <c r="R925" s="11"/>
-      <c r="S925" s="11"/>
-      <c r="T925" s="11"/>
-      <c r="U925" s="11"/>
-      <c r="V925" s="11"/>
-      <c r="W925" s="11"/>
-      <c r="X925" s="11"/>
-      <c r="Y925" s="11"/>
-      <c r="Z925" s="11"/>
-      <c r="AA925" s="11"/>
-      <c r="AB925" s="11"/>
-      <c r="AC925" s="11"/>
-    </row>
-    <row r="926" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A926" s="11"/>
-      <c r="B926" s="11"/>
-      <c r="C926" s="11"/>
-      <c r="D926" s="11"/>
-      <c r="E926" s="11"/>
-      <c r="F926" s="11"/>
-      <c r="G926" s="11"/>
-      <c r="H926" s="11"/>
-      <c r="I926" s="11"/>
-      <c r="J926" s="11"/>
-      <c r="K926" s="11"/>
-      <c r="L926" s="11"/>
-      <c r="M926" s="11"/>
-      <c r="N926" s="11"/>
-      <c r="O926" s="11"/>
-      <c r="P926" s="11"/>
-      <c r="Q926" s="11"/>
-      <c r="R926" s="11"/>
-      <c r="S926" s="11"/>
-      <c r="T926" s="11"/>
-      <c r="U926" s="11"/>
-      <c r="V926" s="11"/>
-      <c r="W926" s="11"/>
-      <c r="X926" s="11"/>
-      <c r="Y926" s="11"/>
-      <c r="Z926" s="11"/>
-      <c r="AA926" s="11"/>
-      <c r="AB926" s="11"/>
-      <c r="AC926" s="11"/>
-    </row>
-    <row r="927" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A927" s="11"/>
-      <c r="B927" s="11"/>
-      <c r="C927" s="11"/>
-      <c r="D927" s="11"/>
-      <c r="E927" s="11"/>
-      <c r="F927" s="11"/>
-      <c r="G927" s="11"/>
-      <c r="H927" s="11"/>
-      <c r="I927" s="11"/>
-      <c r="J927" s="11"/>
-      <c r="K927" s="11"/>
-      <c r="L927" s="11"/>
-      <c r="M927" s="11"/>
-      <c r="N927" s="11"/>
-      <c r="O927" s="11"/>
-      <c r="P927" s="11"/>
-      <c r="Q927" s="11"/>
-      <c r="R927" s="11"/>
-      <c r="S927" s="11"/>
-      <c r="T927" s="11"/>
-      <c r="U927" s="11"/>
-      <c r="V927" s="11"/>
-      <c r="W927" s="11"/>
-      <c r="X927" s="11"/>
-      <c r="Y927" s="11"/>
-      <c r="Z927" s="11"/>
-      <c r="AA927" s="11"/>
-      <c r="AB927" s="11"/>
-      <c r="AC927" s="11"/>
-    </row>
-    <row r="928" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A928" s="11"/>
-      <c r="B928" s="11"/>
-      <c r="C928" s="11"/>
-      <c r="D928" s="11"/>
-      <c r="E928" s="11"/>
-      <c r="F928" s="11"/>
-      <c r="G928" s="11"/>
-      <c r="H928" s="11"/>
-      <c r="I928" s="11"/>
-      <c r="J928" s="11"/>
-      <c r="K928" s="11"/>
-      <c r="L928" s="11"/>
-      <c r="M928" s="11"/>
-      <c r="N928" s="11"/>
-      <c r="O928" s="11"/>
-      <c r="P928" s="11"/>
-      <c r="Q928" s="11"/>
-      <c r="R928" s="11"/>
-      <c r="S928" s="11"/>
-      <c r="T928" s="11"/>
-      <c r="U928" s="11"/>
-      <c r="V928" s="11"/>
-      <c r="W928" s="11"/>
-      <c r="X928" s="11"/>
-      <c r="Y928" s="11"/>
-      <c r="Z928" s="11"/>
-      <c r="AA928" s="11"/>
-      <c r="AB928" s="11"/>
-      <c r="AC928" s="11"/>
-    </row>
-    <row r="929" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A929" s="11"/>
-      <c r="B929" s="11"/>
-      <c r="C929" s="11"/>
-      <c r="D929" s="11"/>
-      <c r="E929" s="11"/>
-      <c r="F929" s="11"/>
-      <c r="G929" s="11"/>
-      <c r="H929" s="11"/>
-      <c r="I929" s="11"/>
-      <c r="J929" s="11"/>
-      <c r="K929" s="11"/>
-      <c r="L929" s="11"/>
-      <c r="M929" s="11"/>
-      <c r="N929" s="11"/>
-      <c r="O929" s="11"/>
-      <c r="P929" s="11"/>
-      <c r="Q929" s="11"/>
-      <c r="R929" s="11"/>
-      <c r="S929" s="11"/>
-      <c r="T929" s="11"/>
-      <c r="U929" s="11"/>
-      <c r="V929" s="11"/>
-      <c r="W929" s="11"/>
-      <c r="X929" s="11"/>
-      <c r="Y929" s="11"/>
-      <c r="Z929" s="11"/>
-      <c r="AA929" s="11"/>
-      <c r="AB929" s="11"/>
-      <c r="AC929" s="11"/>
-    </row>
-    <row r="930" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A930" s="11"/>
-      <c r="B930" s="11"/>
-      <c r="C930" s="11"/>
-      <c r="D930" s="11"/>
-      <c r="E930" s="11"/>
-      <c r="F930" s="11"/>
-      <c r="G930" s="11"/>
-      <c r="H930" s="11"/>
-      <c r="I930" s="11"/>
-      <c r="J930" s="11"/>
-      <c r="K930" s="11"/>
-      <c r="L930" s="11"/>
-      <c r="M930" s="11"/>
-      <c r="N930" s="11"/>
-      <c r="O930" s="11"/>
-      <c r="P930" s="11"/>
-      <c r="Q930" s="11"/>
-      <c r="R930" s="11"/>
-      <c r="S930" s="11"/>
-      <c r="T930" s="11"/>
-      <c r="U930" s="11"/>
-      <c r="V930" s="11"/>
-      <c r="W930" s="11"/>
-      <c r="X930" s="11"/>
-      <c r="Y930" s="11"/>
-      <c r="Z930" s="11"/>
-      <c r="AA930" s="11"/>
-      <c r="AB930" s="11"/>
-      <c r="AC930" s="11"/>
-    </row>
-    <row r="931" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A931" s="11"/>
-      <c r="B931" s="11"/>
-      <c r="C931" s="11"/>
-      <c r="D931" s="11"/>
-      <c r="E931" s="11"/>
-      <c r="F931" s="11"/>
-      <c r="G931" s="11"/>
-      <c r="H931" s="11"/>
-      <c r="I931" s="11"/>
-      <c r="J931" s="11"/>
-      <c r="K931" s="11"/>
-      <c r="L931" s="11"/>
-      <c r="M931" s="11"/>
-      <c r="N931" s="11"/>
-      <c r="O931" s="11"/>
-      <c r="P931" s="11"/>
-      <c r="Q931" s="11"/>
-      <c r="R931" s="11"/>
-      <c r="S931" s="11"/>
-      <c r="T931" s="11"/>
-      <c r="U931" s="11"/>
-      <c r="V931" s="11"/>
-      <c r="W931" s="11"/>
-      <c r="X931" s="11"/>
-      <c r="Y931" s="11"/>
-      <c r="Z931" s="11"/>
-      <c r="AA931" s="11"/>
-      <c r="AB931" s="11"/>
-      <c r="AC931" s="11"/>
-    </row>
-    <row r="932" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A932" s="11"/>
-      <c r="B932" s="11"/>
-      <c r="C932" s="11"/>
-      <c r="D932" s="11"/>
-      <c r="E932" s="11"/>
-      <c r="F932" s="11"/>
-      <c r="G932" s="11"/>
-      <c r="H932" s="11"/>
-      <c r="I932" s="11"/>
-      <c r="J932" s="11"/>
-      <c r="K932" s="11"/>
-      <c r="L932" s="11"/>
-      <c r="M932" s="11"/>
-      <c r="N932" s="11"/>
-      <c r="O932" s="11"/>
-      <c r="P932" s="11"/>
-      <c r="Q932" s="11"/>
-      <c r="R932" s="11"/>
-      <c r="S932" s="11"/>
-      <c r="T932" s="11"/>
-      <c r="U932" s="11"/>
-      <c r="V932" s="11"/>
-      <c r="W932" s="11"/>
-      <c r="X932" s="11"/>
-      <c r="Y932" s="11"/>
-      <c r="Z932" s="11"/>
-      <c r="AA932" s="11"/>
-      <c r="AB932" s="11"/>
-      <c r="AC932" s="11"/>
-    </row>
-    <row r="933" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A933" s="11"/>
-      <c r="B933" s="11"/>
-      <c r="C933" s="11"/>
-      <c r="D933" s="11"/>
-      <c r="E933" s="11"/>
-      <c r="F933" s="11"/>
-      <c r="G933" s="11"/>
-      <c r="H933" s="11"/>
-      <c r="I933" s="11"/>
-      <c r="J933" s="11"/>
-      <c r="K933" s="11"/>
-      <c r="L933" s="11"/>
-      <c r="M933" s="11"/>
-      <c r="N933" s="11"/>
-      <c r="O933" s="11"/>
-      <c r="P933" s="11"/>
-      <c r="Q933" s="11"/>
-      <c r="R933" s="11"/>
-      <c r="S933" s="11"/>
-      <c r="T933" s="11"/>
-      <c r="U933" s="11"/>
-      <c r="V933" s="11"/>
-      <c r="W933" s="11"/>
-      <c r="X933" s="11"/>
-      <c r="Y933" s="11"/>
-      <c r="Z933" s="11"/>
-      <c r="AA933" s="11"/>
-      <c r="AB933" s="11"/>
-      <c r="AC933" s="11"/>
-    </row>
-    <row r="934" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A934" s="11"/>
-      <c r="B934" s="11"/>
-      <c r="C934" s="11"/>
-      <c r="D934" s="11"/>
-      <c r="E934" s="11"/>
-      <c r="F934" s="11"/>
-      <c r="G934" s="11"/>
-      <c r="H934" s="11"/>
-      <c r="I934" s="11"/>
-      <c r="J934" s="11"/>
-      <c r="K934" s="11"/>
-      <c r="L934" s="11"/>
-      <c r="M934" s="11"/>
-      <c r="N934" s="11"/>
-      <c r="O934" s="11"/>
-      <c r="P934" s="11"/>
-      <c r="Q934" s="11"/>
-      <c r="R934" s="11"/>
-      <c r="S934" s="11"/>
-      <c r="T934" s="11"/>
-      <c r="U934" s="11"/>
-      <c r="V934" s="11"/>
-      <c r="W934" s="11"/>
-      <c r="X934" s="11"/>
-      <c r="Y934" s="11"/>
-      <c r="Z934" s="11"/>
-      <c r="AA934" s="11"/>
-      <c r="AB934" s="11"/>
-      <c r="AC934" s="11"/>
-    </row>
-    <row r="935" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A935" s="11"/>
-      <c r="B935" s="11"/>
-      <c r="C935" s="11"/>
-      <c r="D935" s="11"/>
-      <c r="E935" s="11"/>
-      <c r="F935" s="11"/>
-      <c r="G935" s="11"/>
-      <c r="H935" s="11"/>
-      <c r="I935" s="11"/>
-      <c r="J935" s="11"/>
-      <c r="K935" s="11"/>
-      <c r="L935" s="11"/>
-      <c r="M935" s="11"/>
-      <c r="N935" s="11"/>
-      <c r="O935" s="11"/>
-      <c r="P935" s="11"/>
-      <c r="Q935" s="11"/>
-      <c r="R935" s="11"/>
-      <c r="S935" s="11"/>
-      <c r="T935" s="11"/>
-      <c r="U935" s="11"/>
-      <c r="V935" s="11"/>
-      <c r="W935" s="11"/>
-      <c r="X935" s="11"/>
-      <c r="Y935" s="11"/>
-      <c r="Z935" s="11"/>
-      <c r="AA935" s="11"/>
-      <c r="AB935" s="11"/>
-      <c r="AC935" s="11"/>
-    </row>
-    <row r="936" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A936" s="11"/>
-      <c r="B936" s="11"/>
-      <c r="C936" s="11"/>
-      <c r="D936" s="11"/>
-      <c r="E936" s="11"/>
-      <c r="F936" s="11"/>
-      <c r="G936" s="11"/>
-      <c r="H936" s="11"/>
-      <c r="I936" s="11"/>
-      <c r="J936" s="11"/>
-      <c r="K936" s="11"/>
-      <c r="L936" s="11"/>
-      <c r="M936" s="11"/>
-      <c r="N936" s="11"/>
-      <c r="O936" s="11"/>
-      <c r="P936" s="11"/>
-      <c r="Q936" s="11"/>
-      <c r="R936" s="11"/>
-      <c r="S936" s="11"/>
-      <c r="T936" s="11"/>
-      <c r="U936" s="11"/>
-      <c r="V936" s="11"/>
-      <c r="W936" s="11"/>
-      <c r="X936" s="11"/>
-      <c r="Y936" s="11"/>
-      <c r="Z936" s="11"/>
-      <c r="AA936" s="11"/>
-      <c r="AB936" s="11"/>
-      <c r="AC936" s="11"/>
-    </row>
-    <row r="937" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A937" s="11"/>
-      <c r="B937" s="11"/>
-      <c r="C937" s="11"/>
-      <c r="D937" s="11"/>
-      <c r="E937" s="11"/>
-      <c r="F937" s="11"/>
-      <c r="G937" s="11"/>
-      <c r="H937" s="11"/>
-      <c r="I937" s="11"/>
-      <c r="J937" s="11"/>
-      <c r="K937" s="11"/>
-      <c r="L937" s="11"/>
-      <c r="M937" s="11"/>
-      <c r="N937" s="11"/>
-      <c r="O937" s="11"/>
-      <c r="P937" s="11"/>
-      <c r="Q937" s="11"/>
-      <c r="R937" s="11"/>
-      <c r="S937" s="11"/>
-      <c r="T937" s="11"/>
-      <c r="U937" s="11"/>
-      <c r="V937" s="11"/>
-      <c r="W937" s="11"/>
-      <c r="X937" s="11"/>
-      <c r="Y937" s="11"/>
-      <c r="Z937" s="11"/>
-      <c r="AA937" s="11"/>
-      <c r="AB937" s="11"/>
-      <c r="AC937" s="11"/>
-    </row>
-    <row r="938" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A938" s="11"/>
-      <c r="B938" s="11"/>
-      <c r="C938" s="11"/>
-      <c r="D938" s="11"/>
-      <c r="E938" s="11"/>
-      <c r="F938" s="11"/>
-      <c r="G938" s="11"/>
-      <c r="H938" s="11"/>
-      <c r="I938" s="11"/>
-      <c r="J938" s="11"/>
-      <c r="K938" s="11"/>
-      <c r="L938" s="11"/>
-      <c r="M938" s="11"/>
-      <c r="N938" s="11"/>
-      <c r="O938" s="11"/>
-      <c r="P938" s="11"/>
-      <c r="Q938" s="11"/>
-      <c r="R938" s="11"/>
-      <c r="S938" s="11"/>
-      <c r="T938" s="11"/>
-      <c r="U938" s="11"/>
-      <c r="V938" s="11"/>
-      <c r="W938" s="11"/>
-      <c r="X938" s="11"/>
-      <c r="Y938" s="11"/>
-      <c r="Z938" s="11"/>
-      <c r="AA938" s="11"/>
-      <c r="AB938" s="11"/>
-      <c r="AC938" s="11"/>
-    </row>
-    <row r="939" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A939" s="11"/>
-      <c r="B939" s="11"/>
-      <c r="C939" s="11"/>
-      <c r="D939" s="11"/>
-      <c r="E939" s="11"/>
-      <c r="F939" s="11"/>
-      <c r="G939" s="11"/>
-      <c r="H939" s="11"/>
-      <c r="I939" s="11"/>
-      <c r="J939" s="11"/>
-      <c r="K939" s="11"/>
-      <c r="L939" s="11"/>
-      <c r="M939" s="11"/>
-      <c r="N939" s="11"/>
-      <c r="O939" s="11"/>
-      <c r="P939" s="11"/>
-      <c r="Q939" s="11"/>
-      <c r="R939" s="11"/>
-      <c r="S939" s="11"/>
-      <c r="T939" s="11"/>
-      <c r="U939" s="11"/>
-      <c r="V939" s="11"/>
-      <c r="W939" s="11"/>
-      <c r="X939" s="11"/>
-      <c r="Y939" s="11"/>
-      <c r="Z939" s="11"/>
-      <c r="AA939" s="11"/>
-      <c r="AB939" s="11"/>
-      <c r="AC939" s="11"/>
-    </row>
-    <row r="940" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A940" s="11"/>
-      <c r="B940" s="11"/>
-      <c r="C940" s="11"/>
-      <c r="D940" s="11"/>
-      <c r="E940" s="11"/>
-      <c r="F940" s="11"/>
-      <c r="G940" s="11"/>
-      <c r="H940" s="11"/>
-      <c r="I940" s="11"/>
-      <c r="J940" s="11"/>
-      <c r="K940" s="11"/>
-      <c r="L940" s="11"/>
-      <c r="M940" s="11"/>
-      <c r="N940" s="11"/>
-      <c r="O940" s="11"/>
-      <c r="P940" s="11"/>
-      <c r="Q940" s="11"/>
-      <c r="R940" s="11"/>
-      <c r="S940" s="11"/>
-      <c r="T940" s="11"/>
-      <c r="U940" s="11"/>
-      <c r="V940" s="11"/>
-      <c r="W940" s="11"/>
-      <c r="X940" s="11"/>
-      <c r="Y940" s="11"/>
-      <c r="Z940" s="11"/>
-      <c r="AA940" s="11"/>
-      <c r="AB940" s="11"/>
-      <c r="AC940" s="11"/>
-    </row>
-    <row r="941" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A941" s="11"/>
-      <c r="B941" s="11"/>
-      <c r="C941" s="11"/>
-      <c r="D941" s="11"/>
-      <c r="E941" s="11"/>
-      <c r="F941" s="11"/>
-      <c r="G941" s="11"/>
-      <c r="H941" s="11"/>
-      <c r="I941" s="11"/>
-      <c r="J941" s="11"/>
-      <c r="K941" s="11"/>
-      <c r="L941" s="11"/>
-      <c r="M941" s="11"/>
-      <c r="N941" s="11"/>
-      <c r="O941" s="11"/>
-      <c r="P941" s="11"/>
-      <c r="Q941" s="11"/>
-      <c r="R941" s="11"/>
-      <c r="S941" s="11"/>
-      <c r="T941" s="11"/>
-      <c r="U941" s="11"/>
-      <c r="V941" s="11"/>
-      <c r="W941" s="11"/>
-      <c r="X941" s="11"/>
-      <c r="Y941" s="11"/>
-      <c r="Z941" s="11"/>
-      <c r="AA941" s="11"/>
-      <c r="AB941" s="11"/>
-      <c r="AC941" s="11"/>
-    </row>
-    <row r="942" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A942" s="11"/>
-      <c r="B942" s="11"/>
-      <c r="C942" s="11"/>
-      <c r="D942" s="11"/>
-      <c r="E942" s="11"/>
-      <c r="F942" s="11"/>
-      <c r="G942" s="11"/>
-      <c r="H942" s="11"/>
-      <c r="I942" s="11"/>
-      <c r="J942" s="11"/>
-      <c r="K942" s="11"/>
-      <c r="L942" s="11"/>
-      <c r="M942" s="11"/>
-      <c r="N942" s="11"/>
-      <c r="O942" s="11"/>
-      <c r="P942" s="11"/>
-      <c r="Q942" s="11"/>
-      <c r="R942" s="11"/>
-      <c r="S942" s="11"/>
-      <c r="T942" s="11"/>
-      <c r="U942" s="11"/>
-      <c r="V942" s="11"/>
-      <c r="W942" s="11"/>
-      <c r="X942" s="11"/>
-      <c r="Y942" s="11"/>
-      <c r="Z942" s="11"/>
-      <c r="AA942" s="11"/>
-      <c r="AB942" s="11"/>
-      <c r="AC942" s="11"/>
-    </row>
-    <row r="943" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A943" s="11"/>
-      <c r="B943" s="11"/>
-      <c r="C943" s="11"/>
-      <c r="D943" s="11"/>
-      <c r="E943" s="11"/>
-      <c r="F943" s="11"/>
-      <c r="G943" s="11"/>
-      <c r="H943" s="11"/>
-      <c r="I943" s="11"/>
-      <c r="J943" s="11"/>
-      <c r="K943" s="11"/>
-      <c r="L943" s="11"/>
-      <c r="M943" s="11"/>
-      <c r="N943" s="11"/>
-      <c r="O943" s="11"/>
-      <c r="P943" s="11"/>
-      <c r="Q943" s="11"/>
-      <c r="R943" s="11"/>
-      <c r="S943" s="11"/>
-      <c r="T943" s="11"/>
-      <c r="U943" s="11"/>
-      <c r="V943" s="11"/>
-      <c r="W943" s="11"/>
-      <c r="X943" s="11"/>
-      <c r="Y943" s="11"/>
-      <c r="Z943" s="11"/>
-      <c r="AA943" s="11"/>
-      <c r="AB943" s="11"/>
-      <c r="AC943" s="11"/>
-    </row>
-    <row r="944" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A944" s="11"/>
-      <c r="B944" s="11"/>
-      <c r="C944" s="11"/>
-      <c r="D944" s="11"/>
-      <c r="E944" s="11"/>
-      <c r="F944" s="11"/>
-      <c r="G944" s="11"/>
-      <c r="H944" s="11"/>
-      <c r="I944" s="11"/>
-      <c r="J944" s="11"/>
-      <c r="K944" s="11"/>
-      <c r="L944" s="11"/>
-      <c r="M944" s="11"/>
-      <c r="N944" s="11"/>
-      <c r="O944" s="11"/>
-      <c r="P944" s="11"/>
-      <c r="Q944" s="11"/>
-      <c r="R944" s="11"/>
-      <c r="S944" s="11"/>
-      <c r="T944" s="11"/>
-      <c r="U944" s="11"/>
-      <c r="V944" s="11"/>
-      <c r="W944" s="11"/>
-      <c r="X944" s="11"/>
-      <c r="Y944" s="11"/>
-      <c r="Z944" s="11"/>
-      <c r="AA944" s="11"/>
-      <c r="AB944" s="11"/>
-      <c r="AC944" s="11"/>
-    </row>
-    <row r="945" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A945" s="11"/>
-      <c r="B945" s="11"/>
-      <c r="C945" s="11"/>
-      <c r="D945" s="11"/>
-      <c r="E945" s="11"/>
-      <c r="F945" s="11"/>
-      <c r="G945" s="11"/>
-      <c r="H945" s="11"/>
-      <c r="I945" s="11"/>
-      <c r="J945" s="11"/>
-      <c r="K945" s="11"/>
-      <c r="L945" s="11"/>
-      <c r="M945" s="11"/>
-      <c r="N945" s="11"/>
-      <c r="O945" s="11"/>
-      <c r="P945" s="11"/>
-      <c r="Q945" s="11"/>
-      <c r="R945" s="11"/>
-      <c r="S945" s="11"/>
-      <c r="T945" s="11"/>
-      <c r="U945" s="11"/>
-      <c r="V945" s="11"/>
-      <c r="W945" s="11"/>
-      <c r="X945" s="11"/>
-      <c r="Y945" s="11"/>
-      <c r="Z945" s="11"/>
-      <c r="AA945" s="11"/>
-      <c r="AB945" s="11"/>
-      <c r="AC945" s="11"/>
-    </row>
-    <row r="946" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A946" s="11"/>
-      <c r="B946" s="11"/>
-      <c r="C946" s="11"/>
-      <c r="D946" s="11"/>
-      <c r="E946" s="11"/>
-      <c r="F946" s="11"/>
-      <c r="G946" s="11"/>
-      <c r="H946" s="11"/>
-      <c r="I946" s="11"/>
-      <c r="J946" s="11"/>
-      <c r="K946" s="11"/>
-      <c r="L946" s="11"/>
-      <c r="M946" s="11"/>
-      <c r="N946" s="11"/>
-      <c r="O946" s="11"/>
-      <c r="P946" s="11"/>
-      <c r="Q946" s="11"/>
-      <c r="R946" s="11"/>
-      <c r="S946" s="11"/>
-      <c r="T946" s="11"/>
-      <c r="U946" s="11"/>
-      <c r="V946" s="11"/>
-      <c r="W946" s="11"/>
-      <c r="X946" s="11"/>
-      <c r="Y946" s="11"/>
-      <c r="Z946" s="11"/>
-      <c r="AA946" s="11"/>
-      <c r="AB946" s="11"/>
-      <c r="AC946" s="11"/>
-    </row>
-    <row r="947" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A947" s="11"/>
-      <c r="B947" s="11"/>
-      <c r="C947" s="11"/>
-      <c r="D947" s="11"/>
-      <c r="E947" s="11"/>
-      <c r="F947" s="11"/>
-      <c r="G947" s="11"/>
-      <c r="H947" s="11"/>
-      <c r="I947" s="11"/>
-      <c r="J947" s="11"/>
-      <c r="K947" s="11"/>
-      <c r="L947" s="11"/>
-      <c r="M947" s="11"/>
-      <c r="N947" s="11"/>
-      <c r="O947" s="11"/>
-      <c r="P947" s="11"/>
-      <c r="Q947" s="11"/>
-      <c r="R947" s="11"/>
-      <c r="S947" s="11"/>
-      <c r="T947" s="11"/>
-      <c r="U947" s="11"/>
-      <c r="V947" s="11"/>
-      <c r="W947" s="11"/>
-      <c r="X947" s="11"/>
-      <c r="Y947" s="11"/>
-      <c r="Z947" s="11"/>
-      <c r="AA947" s="11"/>
-      <c r="AB947" s="11"/>
-      <c r="AC947" s="11"/>
-    </row>
-    <row r="948" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A948" s="11"/>
-      <c r="B948" s="11"/>
-      <c r="C948" s="11"/>
-      <c r="D948" s="11"/>
-      <c r="E948" s="11"/>
-      <c r="F948" s="11"/>
-      <c r="G948" s="11"/>
-      <c r="H948" s="11"/>
-      <c r="I948" s="11"/>
-      <c r="J948" s="11"/>
-      <c r="K948" s="11"/>
-      <c r="L948" s="11"/>
-      <c r="M948" s="11"/>
-      <c r="N948" s="11"/>
-      <c r="O948" s="11"/>
-      <c r="P948" s="11"/>
-      <c r="Q948" s="11"/>
-      <c r="R948" s="11"/>
-      <c r="S948" s="11"/>
-      <c r="T948" s="11"/>
-      <c r="U948" s="11"/>
-      <c r="V948" s="11"/>
-      <c r="W948" s="11"/>
-      <c r="X948" s="11"/>
-      <c r="Y948" s="11"/>
-      <c r="Z948" s="11"/>
-      <c r="AA948" s="11"/>
-      <c r="AB948" s="11"/>
-      <c r="AC948" s="11"/>
-    </row>
-    <row r="949" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A949" s="11"/>
-      <c r="B949" s="11"/>
-      <c r="C949" s="11"/>
-      <c r="D949" s="11"/>
-      <c r="E949" s="11"/>
-      <c r="F949" s="11"/>
-      <c r="G949" s="11"/>
-      <c r="H949" s="11"/>
-      <c r="I949" s="11"/>
-      <c r="J949" s="11"/>
-      <c r="K949" s="11"/>
-      <c r="L949" s="11"/>
-      <c r="M949" s="11"/>
-      <c r="N949" s="11"/>
-      <c r="O949" s="11"/>
-      <c r="P949" s="11"/>
-      <c r="Q949" s="11"/>
-      <c r="R949" s="11"/>
-      <c r="S949" s="11"/>
-      <c r="T949" s="11"/>
-      <c r="U949" s="11"/>
-      <c r="V949" s="11"/>
-      <c r="W949" s="11"/>
-      <c r="X949" s="11"/>
-      <c r="Y949" s="11"/>
-      <c r="Z949" s="11"/>
-      <c r="AA949" s="11"/>
-      <c r="AB949" s="11"/>
-      <c r="AC949" s="11"/>
-    </row>
-    <row r="950" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A950" s="11"/>
-      <c r="B950" s="11"/>
-      <c r="C950" s="11"/>
-      <c r="D950" s="11"/>
-      <c r="E950" s="11"/>
-      <c r="F950" s="11"/>
-      <c r="G950" s="11"/>
-      <c r="H950" s="11"/>
-      <c r="I950" s="11"/>
-      <c r="J950" s="11"/>
-      <c r="K950" s="11"/>
-      <c r="L950" s="11"/>
-      <c r="M950" s="11"/>
-      <c r="N950" s="11"/>
-      <c r="O950" s="11"/>
-      <c r="P950" s="11"/>
-      <c r="Q950" s="11"/>
-      <c r="R950" s="11"/>
-      <c r="S950" s="11"/>
-      <c r="T950" s="11"/>
-      <c r="U950" s="11"/>
-      <c r="V950" s="11"/>
-      <c r="W950" s="11"/>
-      <c r="X950" s="11"/>
-      <c r="Y950" s="11"/>
-      <c r="Z950" s="11"/>
-      <c r="AA950" s="11"/>
-      <c r="AB950" s="11"/>
-      <c r="AC950" s="11"/>
-    </row>
-    <row r="951" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A951" s="11"/>
-      <c r="B951" s="11"/>
-      <c r="C951" s="11"/>
-      <c r="D951" s="11"/>
-      <c r="E951" s="11"/>
-      <c r="F951" s="11"/>
-      <c r="G951" s="11"/>
-      <c r="H951" s="11"/>
-      <c r="I951" s="11"/>
-      <c r="J951" s="11"/>
-      <c r="K951" s="11"/>
-      <c r="L951" s="11"/>
-      <c r="M951" s="11"/>
-      <c r="N951" s="11"/>
-      <c r="O951" s="11"/>
-      <c r="P951" s="11"/>
-      <c r="Q951" s="11"/>
-      <c r="R951" s="11"/>
-      <c r="S951" s="11"/>
-      <c r="T951" s="11"/>
-      <c r="U951" s="11"/>
-      <c r="V951" s="11"/>
-      <c r="W951" s="11"/>
-      <c r="X951" s="11"/>
-      <c r="Y951" s="11"/>
-      <c r="Z951" s="11"/>
-      <c r="AA951" s="11"/>
-      <c r="AB951" s="11"/>
-      <c r="AC951" s="11"/>
-    </row>
-    <row r="952" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A952" s="11"/>
-      <c r="B952" s="11"/>
-      <c r="C952" s="11"/>
-      <c r="D952" s="11"/>
-      <c r="E952" s="11"/>
-      <c r="F952" s="11"/>
-      <c r="G952" s="11"/>
-      <c r="H952" s="11"/>
-      <c r="I952" s="11"/>
-      <c r="J952" s="11"/>
-      <c r="K952" s="11"/>
-      <c r="L952" s="11"/>
-      <c r="M952" s="11"/>
-      <c r="N952" s="11"/>
-      <c r="O952" s="11"/>
-      <c r="P952" s="11"/>
-      <c r="Q952" s="11"/>
-      <c r="R952" s="11"/>
-      <c r="S952" s="11"/>
-      <c r="T952" s="11"/>
-      <c r="U952" s="11"/>
-      <c r="V952" s="11"/>
-      <c r="W952" s="11"/>
-      <c r="X952" s="11"/>
-      <c r="Y952" s="11"/>
-      <c r="Z952" s="11"/>
-      <c r="AA952" s="11"/>
-      <c r="AB952" s="11"/>
-      <c r="AC952" s="11"/>
-    </row>
-    <row r="953" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A953" s="11"/>
-      <c r="B953" s="11"/>
-      <c r="C953" s="11"/>
-      <c r="D953" s="11"/>
-      <c r="E953" s="11"/>
-      <c r="F953" s="11"/>
-      <c r="G953" s="11"/>
-      <c r="H953" s="11"/>
-      <c r="I953" s="11"/>
-      <c r="J953" s="11"/>
-      <c r="K953" s="11"/>
-      <c r="L953" s="11"/>
-      <c r="M953" s="11"/>
-      <c r="N953" s="11"/>
-      <c r="O953" s="11"/>
-      <c r="P953" s="11"/>
-      <c r="Q953" s="11"/>
-      <c r="R953" s="11"/>
-      <c r="S953" s="11"/>
-      <c r="T953" s="11"/>
-      <c r="U953" s="11"/>
-      <c r="V953" s="11"/>
-      <c r="W953" s="11"/>
-      <c r="X953" s="11"/>
-      <c r="Y953" s="11"/>
-      <c r="Z953" s="11"/>
-      <c r="AA953" s="11"/>
-      <c r="AB953" s="11"/>
-      <c r="AC953" s="11"/>
-    </row>
-    <row r="954" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A954" s="11"/>
-      <c r="B954" s="11"/>
-      <c r="C954" s="11"/>
-      <c r="D954" s="11"/>
-      <c r="E954" s="11"/>
-      <c r="F954" s="11"/>
-      <c r="G954" s="11"/>
-      <c r="H954" s="11"/>
-      <c r="I954" s="11"/>
-      <c r="J954" s="11"/>
-      <c r="K954" s="11"/>
-      <c r="L954" s="11"/>
-      <c r="M954" s="11"/>
-      <c r="N954" s="11"/>
-      <c r="O954" s="11"/>
-      <c r="P954" s="11"/>
-      <c r="Q954" s="11"/>
-      <c r="R954" s="11"/>
-      <c r="S954" s="11"/>
-      <c r="T954" s="11"/>
-      <c r="U954" s="11"/>
-      <c r="V954" s="11"/>
-      <c r="W954" s="11"/>
-      <c r="X954" s="11"/>
-      <c r="Y954" s="11"/>
-      <c r="Z954" s="11"/>
-      <c r="AA954" s="11"/>
-      <c r="AB954" s="11"/>
-      <c r="AC954" s="11"/>
-    </row>
-    <row r="955" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A955" s="11"/>
-      <c r="B955" s="11"/>
-      <c r="C955" s="11"/>
-      <c r="D955" s="11"/>
-      <c r="E955" s="11"/>
-      <c r="F955" s="11"/>
-      <c r="G955" s="11"/>
-      <c r="H955" s="11"/>
-      <c r="I955" s="11"/>
-      <c r="J955" s="11"/>
-      <c r="K955" s="11"/>
-      <c r="L955" s="11"/>
-      <c r="M955" s="11"/>
-      <c r="N955" s="11"/>
-      <c r="O955" s="11"/>
-      <c r="P955" s="11"/>
-      <c r="Q955" s="11"/>
-      <c r="R955" s="11"/>
-      <c r="S955" s="11"/>
-      <c r="T955" s="11"/>
-      <c r="U955" s="11"/>
-      <c r="V955" s="11"/>
-      <c r="W955" s="11"/>
-      <c r="X955" s="11"/>
-      <c r="Y955" s="11"/>
-      <c r="Z955" s="11"/>
-      <c r="AA955" s="11"/>
-      <c r="AB955" s="11"/>
-      <c r="AC955" s="11"/>
-    </row>
-    <row r="956" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A956" s="11"/>
-      <c r="B956" s="11"/>
-      <c r="C956" s="11"/>
-      <c r="D956" s="11"/>
-      <c r="E956" s="11"/>
-      <c r="F956" s="11"/>
-      <c r="G956" s="11"/>
-      <c r="H956" s="11"/>
-      <c r="I956" s="11"/>
-      <c r="J956" s="11"/>
-      <c r="K956" s="11"/>
-      <c r="L956" s="11"/>
-      <c r="M956" s="11"/>
-      <c r="N956" s="11"/>
-      <c r="O956" s="11"/>
-      <c r="P956" s="11"/>
-      <c r="Q956" s="11"/>
-      <c r="R956" s="11"/>
-      <c r="S956" s="11"/>
-      <c r="T956" s="11"/>
-      <c r="U956" s="11"/>
-      <c r="V956" s="11"/>
-      <c r="W956" s="11"/>
-      <c r="X956" s="11"/>
-      <c r="Y956" s="11"/>
-      <c r="Z956" s="11"/>
-      <c r="AA956" s="11"/>
-      <c r="AB956" s="11"/>
-      <c r="AC956" s="11"/>
-    </row>
-    <row r="957" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A957" s="11"/>
-      <c r="B957" s="11"/>
-      <c r="C957" s="11"/>
-      <c r="D957" s="11"/>
-      <c r="E957" s="11"/>
-      <c r="F957" s="11"/>
-      <c r="G957" s="11"/>
-      <c r="H957" s="11"/>
-      <c r="I957" s="11"/>
-      <c r="J957" s="11"/>
-      <c r="K957" s="11"/>
-      <c r="L957" s="11"/>
-      <c r="M957" s="11"/>
-      <c r="N957" s="11"/>
-      <c r="O957" s="11"/>
-      <c r="P957" s="11"/>
-      <c r="Q957" s="11"/>
-      <c r="R957" s="11"/>
-      <c r="S957" s="11"/>
-      <c r="T957" s="11"/>
-      <c r="U957" s="11"/>
-      <c r="V957" s="11"/>
-      <c r="W957" s="11"/>
-      <c r="X957" s="11"/>
-      <c r="Y957" s="11"/>
-      <c r="Z957" s="11"/>
-      <c r="AA957" s="11"/>
-      <c r="AB957" s="11"/>
-      <c r="AC957" s="11"/>
-    </row>
-    <row r="958" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A958" s="11"/>
-      <c r="B958" s="11"/>
-      <c r="C958" s="11"/>
-      <c r="D958" s="11"/>
-      <c r="E958" s="11"/>
-      <c r="F958" s="11"/>
-      <c r="G958" s="11"/>
-      <c r="H958" s="11"/>
-      <c r="I958" s="11"/>
-      <c r="J958" s="11"/>
-      <c r="K958" s="11"/>
-      <c r="L958" s="11"/>
-      <c r="M958" s="11"/>
-      <c r="N958" s="11"/>
-      <c r="O958" s="11"/>
-      <c r="P958" s="11"/>
-      <c r="Q958" s="11"/>
-      <c r="R958" s="11"/>
-      <c r="S958" s="11"/>
-      <c r="T958" s="11"/>
-      <c r="U958" s="11"/>
-      <c r="V958" s="11"/>
-      <c r="W958" s="11"/>
-      <c r="X958" s="11"/>
-      <c r="Y958" s="11"/>
-      <c r="Z958" s="11"/>
-      <c r="AA958" s="11"/>
-      <c r="AB958" s="11"/>
-      <c r="AC958" s="11"/>
-    </row>
-    <row r="959" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A959" s="11"/>
-      <c r="B959" s="11"/>
-      <c r="C959" s="11"/>
-      <c r="D959" s="11"/>
-      <c r="E959" s="11"/>
-      <c r="F959" s="11"/>
-      <c r="G959" s="11"/>
-      <c r="H959" s="11"/>
-      <c r="I959" s="11"/>
-      <c r="J959" s="11"/>
-      <c r="K959" s="11"/>
-      <c r="L959" s="11"/>
-      <c r="M959" s="11"/>
-      <c r="N959" s="11"/>
-      <c r="O959" s="11"/>
-      <c r="P959" s="11"/>
-      <c r="Q959" s="11"/>
-      <c r="R959" s="11"/>
-      <c r="S959" s="11"/>
-      <c r="T959" s="11"/>
-      <c r="U959" s="11"/>
-      <c r="V959" s="11"/>
-      <c r="W959" s="11"/>
-      <c r="X959" s="11"/>
-      <c r="Y959" s="11"/>
-      <c r="Z959" s="11"/>
-      <c r="AA959" s="11"/>
-      <c r="AB959" s="11"/>
-      <c r="AC959" s="11"/>
-    </row>
-    <row r="960" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A960" s="11"/>
-      <c r="B960" s="11"/>
-      <c r="C960" s="11"/>
-      <c r="D960" s="11"/>
-      <c r="E960" s="11"/>
-      <c r="F960" s="11"/>
-      <c r="G960" s="11"/>
-      <c r="H960" s="11"/>
-      <c r="I960" s="11"/>
-      <c r="J960" s="11"/>
-      <c r="K960" s="11"/>
-      <c r="L960" s="11"/>
-      <c r="M960" s="11"/>
-      <c r="N960" s="11"/>
-      <c r="O960" s="11"/>
-      <c r="P960" s="11"/>
-      <c r="Q960" s="11"/>
-      <c r="R960" s="11"/>
-      <c r="S960" s="11"/>
-      <c r="T960" s="11"/>
-      <c r="U960" s="11"/>
-      <c r="V960" s="11"/>
-      <c r="W960" s="11"/>
-      <c r="X960" s="11"/>
-      <c r="Y960" s="11"/>
-      <c r="Z960" s="11"/>
-      <c r="AA960" s="11"/>
-      <c r="AB960" s="11"/>
-      <c r="AC960" s="11"/>
-    </row>
-    <row r="961" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A961" s="11"/>
-      <c r="B961" s="11"/>
-      <c r="C961" s="11"/>
-      <c r="D961" s="11"/>
-      <c r="E961" s="11"/>
-      <c r="F961" s="11"/>
-      <c r="G961" s="11"/>
-      <c r="H961" s="11"/>
-      <c r="I961" s="11"/>
-      <c r="J961" s="11"/>
-      <c r="K961" s="11"/>
-      <c r="L961" s="11"/>
-      <c r="M961" s="11"/>
-      <c r="N961" s="11"/>
-      <c r="O961" s="11"/>
-      <c r="P961" s="11"/>
-      <c r="Q961" s="11"/>
-      <c r="R961" s="11"/>
-      <c r="S961" s="11"/>
-      <c r="T961" s="11"/>
-      <c r="U961" s="11"/>
-      <c r="V961" s="11"/>
-      <c r="W961" s="11"/>
-      <c r="X961" s="11"/>
-      <c r="Y961" s="11"/>
-      <c r="Z961" s="11"/>
-      <c r="AA961" s="11"/>
-      <c r="AB961" s="11"/>
-      <c r="AC961" s="11"/>
-    </row>
-    <row r="962" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A962" s="11"/>
-      <c r="B962" s="11"/>
-      <c r="C962" s="11"/>
-      <c r="D962" s="11"/>
-      <c r="E962" s="11"/>
-      <c r="F962" s="11"/>
-      <c r="G962" s="11"/>
-      <c r="H962" s="11"/>
-      <c r="I962" s="11"/>
-      <c r="J962" s="11"/>
-      <c r="K962" s="11"/>
-      <c r="L962" s="11"/>
-      <c r="M962" s="11"/>
-      <c r="N962" s="11"/>
-      <c r="O962" s="11"/>
-      <c r="P962" s="11"/>
-      <c r="Q962" s="11"/>
-      <c r="R962" s="11"/>
-      <c r="S962" s="11"/>
-      <c r="T962" s="11"/>
-      <c r="U962" s="11"/>
-      <c r="V962" s="11"/>
-      <c r="W962" s="11"/>
-      <c r="X962" s="11"/>
-      <c r="Y962" s="11"/>
-      <c r="Z962" s="11"/>
-      <c r="AA962" s="11"/>
-      <c r="AB962" s="11"/>
-      <c r="AC962" s="11"/>
-    </row>
-    <row r="963" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A963" s="11"/>
-      <c r="B963" s="11"/>
-      <c r="C963" s="11"/>
-      <c r="D963" s="11"/>
-      <c r="E963" s="11"/>
-      <c r="F963" s="11"/>
-      <c r="G963" s="11"/>
-      <c r="H963" s="11"/>
-      <c r="I963" s="11"/>
-      <c r="J963" s="11"/>
-      <c r="K963" s="11"/>
-      <c r="L963" s="11"/>
-      <c r="M963" s="11"/>
-      <c r="N963" s="11"/>
-      <c r="O963" s="11"/>
-      <c r="P963" s="11"/>
-      <c r="Q963" s="11"/>
-      <c r="R963" s="11"/>
-      <c r="S963" s="11"/>
-      <c r="T963" s="11"/>
-      <c r="U963" s="11"/>
-      <c r="V963" s="11"/>
-      <c r="W963" s="11"/>
-      <c r="X963" s="11"/>
-      <c r="Y963" s="11"/>
-      <c r="Z963" s="11"/>
-      <c r="AA963" s="11"/>
-      <c r="AB963" s="11"/>
-      <c r="AC963" s="11"/>
-    </row>
-    <row r="964" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A964" s="11"/>
-      <c r="B964" s="11"/>
-      <c r="C964" s="11"/>
-      <c r="D964" s="11"/>
-      <c r="E964" s="11"/>
-      <c r="F964" s="11"/>
-      <c r="G964" s="11"/>
-      <c r="H964" s="11"/>
-      <c r="I964" s="11"/>
-      <c r="J964" s="11"/>
-      <c r="K964" s="11"/>
-      <c r="L964" s="11"/>
-      <c r="M964" s="11"/>
-      <c r="N964" s="11"/>
-      <c r="O964" s="11"/>
-      <c r="P964" s="11"/>
-      <c r="Q964" s="11"/>
-      <c r="R964" s="11"/>
-      <c r="S964" s="11"/>
-      <c r="T964" s="11"/>
-      <c r="U964" s="11"/>
-      <c r="V964" s="11"/>
-      <c r="W964" s="11"/>
-      <c r="X964" s="11"/>
-      <c r="Y964" s="11"/>
-      <c r="Z964" s="11"/>
-      <c r="AA964" s="11"/>
-      <c r="AB964" s="11"/>
-      <c r="AC964" s="11"/>
-    </row>
-    <row r="965" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A965" s="11"/>
-      <c r="B965" s="11"/>
-      <c r="C965" s="11"/>
-      <c r="D965" s="11"/>
-      <c r="E965" s="11"/>
-      <c r="F965" s="11"/>
-      <c r="G965" s="11"/>
-      <c r="H965" s="11"/>
-      <c r="I965" s="11"/>
-      <c r="J965" s="11"/>
-      <c r="K965" s="11"/>
-      <c r="L965" s="11"/>
-      <c r="M965" s="11"/>
-      <c r="N965" s="11"/>
-      <c r="O965" s="11"/>
-      <c r="P965" s="11"/>
-      <c r="Q965" s="11"/>
-      <c r="R965" s="11"/>
-      <c r="S965" s="11"/>
-      <c r="T965" s="11"/>
-      <c r="U965" s="11"/>
-      <c r="V965" s="11"/>
-      <c r="W965" s="11"/>
-      <c r="X965" s="11"/>
-      <c r="Y965" s="11"/>
-      <c r="Z965" s="11"/>
-      <c r="AA965" s="11"/>
-      <c r="AB965" s="11"/>
-      <c r="AC965" s="11"/>
-    </row>
-    <row r="966" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A966" s="11"/>
-      <c r="B966" s="11"/>
-      <c r="C966" s="11"/>
-      <c r="D966" s="11"/>
-      <c r="E966" s="11"/>
-      <c r="F966" s="11"/>
-      <c r="G966" s="11"/>
-      <c r="H966" s="11"/>
-      <c r="I966" s="11"/>
-      <c r="J966" s="11"/>
-      <c r="K966" s="11"/>
-      <c r="L966" s="11"/>
-      <c r="M966" s="11"/>
-      <c r="N966" s="11"/>
-      <c r="O966" s="11"/>
-      <c r="P966" s="11"/>
-      <c r="Q966" s="11"/>
-      <c r="R966" s="11"/>
-      <c r="S966" s="11"/>
-      <c r="T966" s="11"/>
-      <c r="U966" s="11"/>
-      <c r="V966" s="11"/>
-      <c r="W966" s="11"/>
-      <c r="X966" s="11"/>
-      <c r="Y966" s="11"/>
-      <c r="Z966" s="11"/>
-      <c r="AA966" s="11"/>
-      <c r="AB966" s="11"/>
-      <c r="AC966" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="W4:AC4"/>
@@ -38091,6 +36114,61 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="ec07c698-60f5-424f-b9af-f4c59398b511" ContentTypeId="0x010100545E941595ED5448BA61900FDDAFF313" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -38098,7 +36176,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="8c566321-f672-4e06-a901-b5e72b4c4357">
@@ -38133,7 +36211,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Official Document" ma:contentTypeID="0x010100545E941595ED5448BA61900FDDAFF31300F23EB909EBCAEE499110FA8A5CB27961" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="dde36c3790bc6f325b935b3ffb0767a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c566321-f672-4e06-a901-b5e72b4c4357" xmlns:ns3="ba2294b9-6d6a-4c9b-a125-9e4b98f52ed2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc691e1e4bbac45d4a692c19e1cb2c2e" ns2:_="" ns3:_="">
     <xsd:import namespace="8c566321-f672-4e06-a901-b5e72b4c4357"/>
@@ -38331,77 +36409,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE862F21-36C9-47ED-873F-C24ED931464B}"/>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="ec07c698-60f5-424f-b9af-f4c59398b511" ContentTypeId="0x010100545E941595ED5448BA61900FDDAFF313" PreviousValue="false"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A002B758-0D6B-41F8-911A-BE671BBC0075}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D167CF2-09A7-42BE-8B19-EBD3193DE807}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFBB6CA-626F-4017-AFC5-7D5A1E2A0CA0}"/>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5FC9F1-4D2D-49FA-8A20-EB250D1B47B4}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE862F21-36C9-47ED-873F-C24ED931464B}"/>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A002B758-0D6B-41F8-911A-BE671BBC0075}"/>
 </file>